--- a/Table BPI Challenge 2017.xlsx
+++ b/Table BPI Challenge 2017.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlo\Documents\Trabajo\BPI Challenge\Material suplementario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE9C0AF-F492-4FFB-9850-542083F95072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0B9223-140B-4685-AD0E-CB3D1BD642BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12DABD36-01B1-CF41-A32E-463C511D460E}"/>
   </bookViews>
@@ -37,8 +37,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>María Salas Urbano</author>
-    <author>tc={5E0421D1-3F93-924A-84EF-01F3DFA2A63E}</author>
-    <author>tc={E7842EE3-3735-0745-AA4F-112D6C40BC20}</author>
   </authors>
   <commentList>
     <comment ref="M12" authorId="0" shapeId="0" xr:uid="{4363DC5E-43A3-4ECD-B12B-BAB0F0F9FF5E}">
@@ -113,28 +111,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="J39" authorId="1" shapeId="0" xr:uid="{5E0421D1-3F93-924A-84EF-01F3DFA2A63E}">
-      <text>
-        <t>[Comentario encadenado]
-Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
-Comentario:
-    El segundo párrafo, ¿no es la versión genérica del tercero y el cuarto?</t>
-      </text>
-    </comment>
-    <comment ref="J44" authorId="2" shapeId="0" xr:uid="{E7842EE3-3735-0745-AA4F-112D6C40BC20}">
-      <text>
-        <t>[Comentario encadenado]
-Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
-Comentario:
-    Referenciar esta celda en las que necesitan el resultado que se calcula aquí</t>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="184">
   <si>
     <t>A1</t>
   </si>
@@ -187,65 +169,271 @@
     <t>A23</t>
   </si>
   <si>
-    <t>deducen que las actividades relacionadas con el estado “Start” deben pertenecer al banco y que las actividades relacionadas con la devolución de una oferta (actividad O_Returned) deben pertenecer al cliente</t>
-  </si>
-  <si>
-    <t>Visualizan los mapas de procesos de todas las variantes y determinan que actividades podrían ser aquellas en las que espera el banco y en las que espera el cliente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Importación del log de eventos de aplicaciones a Disco, seleccionando el 100% de las actividades para generar su mapa de procesos y deducen que actividades pueden pertencer al banco o al cliente. </t>
-  </si>
-  <si>
-    <t>identifican qué eventos pertenecen al log de aplicación y por quién esperan (cliente o sistema o usuario del banco) según la definición de cada actividad, identifican quién la lleva a cabo y, por tanto, quién espera para realizarla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para cada arco entre dos actividades, identifican con qué rol está asociado (cliente o sistema o usuario del banco) según el contexto y las actividades de comienzo y fin. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consideran los siguientes intervalos de tiempo en los que el cliente espera por la respuesta del banco:  
-- Intervalo 1: entre rellenar una solicitud en el sitio y la aceptación de la solicitud
-- Intervalo 2: entre la aprobación de una solicitud y el envío de una oferta al cliente 
-- Intervalo 3: entre la verificación de una solicitud por el empleado y la toma de una decisión  
-Consideran los siguientes intervalos de tiempo en los que el banco espera por la respuesta del cliente:  
-- Intervalo A: entre el envío de una oferta al cliente y el inicio de la verificación de los documentos proporcionados por el cliente 
-- Intervalo B: entre la toma de una decisión (el cliente debe proporcionar información adicional ya que la solicitud no está completa) y el comienzo de la verificación de nuevo de la solicitud después de la adquisición de los documentos faltantes del cliente </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifican las partes en la que espera el cliente o el banco, según el contexto (lo suponen) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definen que el término “part” en la pregunta 1 para ellos es un conjunto de eventos que se ejecutan para aceptar o rechazar la aplicación de un préstamo. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parten del modelo “AS-IS” del proceso realizan los siguientes pasos previos
-Eliminan un bucle de la actividad “O_Create offer” y crean cuatro versiones de esa actividad dependiendo de la frecuencia con que ocurre: “O_Create offer1”, “O_Create offer2”, “O_Create offer3” y “O_Create offer4” (página 23). 
-Eliminan “W_Complete application” de partes en paralelo del proceso. 
-Dividen la conexión entre “W_Complete application” y “O_Create offer” en dos distintas (página 23). 
-Repiten la actividad “A_Cancelled” cinco veces para capturar en qué momento el solicitante cancela la solicitud. Realizan el mismo planteamiento para A_Denied y A_Pending. (página 23). 
-Consideran como “final outcome” a “A_Cancelled”,” A_Denied”, y “A_Pending” (página 23). 
-Cálculo del promedio y la mediana del waiting time de todo el proceso (página 24). 
-Cálculo del waiting time promedio de cada evento (página 24). 
-Identifican que eventos pertenecen al cliente (página 24). 
-Identifican que eventos pertenecen al banco (página 24). 
-Calculan el porcentaje de trazas que tienen cada evento (página 24). </t>
-  </si>
-  <si>
-    <t>Representar gráficamente histogramas del cycle time</t>
-  </si>
-  <si>
-    <t>1- Primero definen los cycle times que van a calcular, dependiendo desde donde se calcula hasta donde (no se especifica el porqué de este planteamiento): 
-El cycle time de todo el proceso</t>
-  </si>
-  <si>
-    <t> 4- Además, calculan la frecuencia absoluta con la que se producen los estados en cada evento. 
-7- Además, calculan la frecuencia absoluta con la que se producen los estados en cada evento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9- Consideran como “bottleneck” la realización de varias actividades consecutivas dependiendo de sus estados , y que aumenten considerablemente el promedio del cycle time de todo el proceso.
-Aplican el mismo planteamiento de “bottleneck”, pero solo para las trazas de los últimos 30 días del log (posiblemente apliquen un “timeframe filter). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10- Para esas actividades (bottlenecks) calculan el porcentaje de trazas que contienen dichas actividades de forma seguida con esos estados </t>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Representar mapa de procesos con frecuencia</t>
+  </si>
+  <si>
+    <t>Previous considerations</t>
+  </si>
+  <si>
+    <t>Filter traces by attributes</t>
+  </si>
+  <si>
+    <t>Discover process maps</t>
+  </si>
+  <si>
+    <t>Represent heatmaps</t>
+  </si>
+  <si>
+    <t>Preprocess the traces of the logs</t>
+  </si>
+  <si>
+    <t>Assign resource to each activity</t>
+  </si>
+  <si>
+    <t>Calculate frequency of activities</t>
+  </si>
+  <si>
+    <t>Calculate percentage of traces</t>
+  </si>
+  <si>
+    <t>Filter traces by activities</t>
+  </si>
+  <si>
+    <t>Represent process map with cycle time</t>
+  </si>
+  <si>
+    <t>Calculate number of activities</t>
+  </si>
+  <si>
+    <t>Calculate number of traces</t>
+  </si>
+  <si>
+    <t>Calculate number of events</t>
+  </si>
+  <si>
+    <t>Calculate cycle time of a fragment of the process for a subset of traces</t>
+  </si>
+  <si>
+    <t>Calculate cycle time of only a subset of pairs of events for all traces</t>
+  </si>
+  <si>
+    <t>Calculate cycle time for all pairs of events for each subset of traces</t>
+  </si>
+  <si>
+    <t>Calculate cycle time for all pairs of events for all traces</t>
+  </si>
+  <si>
+    <t>Calculate cycle time of a fragment of the process for all traces</t>
+  </si>
+  <si>
+    <t>Calculate cycle time of the whole process for each subset of traces</t>
+  </si>
+  <si>
+    <t>Calculate cycle time of the whole process for a subset of traces</t>
+  </si>
+  <si>
+    <t>Calculate cycle time of a fragment of the process for each subset of traces</t>
+  </si>
+  <si>
+    <t>Calculate cycle time of only a subset of pairs of events for a subset of traces</t>
+  </si>
+  <si>
+    <t>Calculate waiting time</t>
+  </si>
+  <si>
+    <t>Calculate processing time</t>
+  </si>
+  <si>
+    <t>Compare waiting time with processing time</t>
+  </si>
+  <si>
+    <t>Filter events by activities</t>
+  </si>
+  <si>
+    <t>Group activities by role</t>
+  </si>
+  <si>
+    <t>Calculate frequency of events</t>
+  </si>
+  <si>
+    <t>Identify resources by activities</t>
+  </si>
+  <si>
+    <t>Calculate frequency of resources</t>
+  </si>
+  <si>
+    <t>Filter traces by cycle time</t>
+  </si>
+  <si>
+    <t>Represent bar charts of waiting time</t>
+  </si>
+  <si>
+    <t>Represent histograms of waiting time</t>
+  </si>
+  <si>
+    <t>Identify sub-processes as bottlenecks applying temporal performance criteria</t>
+  </si>
+  <si>
+    <t>Identify activities as bottlenecks applying temporal performance criteria and statistical measures</t>
+  </si>
+  <si>
+    <t>Identify rol associated with bottlenecks</t>
+  </si>
+  <si>
+    <t>Calculate percentages</t>
+  </si>
+  <si>
+    <t>Group traces depending on attributes</t>
+  </si>
+  <si>
+    <t>Group traces by activities</t>
+  </si>
+  <si>
+    <t>Group traces by waiting time</t>
+  </si>
+  <si>
+    <t>Grouping traces by cycle time</t>
+  </si>
+  <si>
+    <t>Calculate percentage of events</t>
+  </si>
+  <si>
+    <t>deduce that activities related to the "Start" status should belong to the bank and that activities related to the return of an offer (O_Returned activity) should belong to the customer.</t>
+  </si>
+  <si>
+    <t>They visualise the process maps of all variants and determine which activities the bank expects and which the customer expects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import of the application event log into Disco, selecting 100% of the activities to generate their process map and deduce which activities may belong to the bank or to the customer. </t>
+  </si>
+  <si>
+    <t>identify which events belong to the application log and by whom they are expected (customer or system or bank user) according to the definition of each activity, identify who performs it and therefore who waits to perform it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For each arc between two activities, they identify which role it is associated with (customer or system or bank user) according to the context and the starting and ending activities. </t>
+  </si>
+  <si>
+    <t>They consider the following time intervals in which the customer waits for the bank's response:  
+- Interval 1: between completing an application on the site and the acceptance of the application
+- Interval 2: between the approval of an application and the sending of an offer to the customer 
+- Interval 3: between the verification of an application by the employee and the making of a decision.  
+Consider the following time intervals in which the bank waits for the customer's response:  
+- Interval A: between the sending of an offer to the customer and the start of the verification of the documents provided by the customer 
+- Interval B: between making a decision (the customer must provide additional information as the application is not complete) and the start of the re-verification of the application after the acquisition of the missing documents from the customer 
+Translated with www.DeepL.com/Translator (free version)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They identify the parties in which the customer or the bank expects, depending on the context (they assume) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They define the term "part" in question 1 for them as a set of events that are executed to accept or reject a loan application. </t>
+  </si>
+  <si>
+    <t>Starting from the "AS-IS" model of the process, they perform the following preliminary steps
+They remove one loop of the activity "O_Create offer" and create four versions of that activity depending on the frequency of occurrence: "O_Create offer1", "O_Create offer2", "O_Create offer3" and "O_Create offer4" (page 23). 
+Remove "W_Complete application" from parallel parts of the process. 
+Split the connection between "W_Complete application" and "O_Create offer" into two separate ones (page 23). 
+Repeat the activity "A_Cancelled" five times to capture at which point the applicant cancels the application. They perform the same approach for A_Denied and A_Pending. (page 23). 
+Consider "A_Cancelled", "A_Denied", and "A_Pending" as "final outcome" (page 23). 
+Calculation of the average and median waiting time of the whole process (page 24). 
+Calculation of the average waiting time for each event (page 24). 
+Identify which events belong to the client (page 24). 
+Identify which events belong to the bank (page 24). 
+Calculate the percentage of traces that each event has (page 24). 
+Translated with www.DeepL.com/Translator (free version)</t>
+  </si>
+  <si>
+    <t>1- Filter traces where "offered amount"/"requested amount" &gt; 30.000 (possibly apply an attribute filter).</t>
+  </si>
+  <si>
+    <t>3- Select the following traces according to the value taken by the attribute case: LoanGoal (possibly use attribute filter and activity filter to filter the traces of interest in the following cases): 
+Traces where case: LoanGoal takes the value of some means of transport (Car, Boat, Motorcycle, Caravan / Camper).  
+Traces where case: LoanGoal takes the value of some means of transport (Car, Boat, Motorcycle, Caravan / Camper) and the final activity is A_Pending 
+Translated with www.DeepL.com/Translator (free version)</t>
+  </si>
+  <si>
+    <t>1- Use ProM's "Replay a Log on Petri Net for Performance/Conformance Analysis" plugin to discover process maps.</t>
+  </si>
+  <si>
+    <t>1- They apply the Hartigan-Wong variant of the K-Means clustering algorithm without specifying the number of clusters using RefMod-Miner, to group activities into clusters.</t>
+  </si>
+  <si>
+    <t>2- Represent the groupings of activities in a heat map (indicate with colours the similarity of the activities with the clusters).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Elimination of the following attributes to simplify the analysis of this question: "Credit Score", "Number of Terms" and "First Withdrawal Amount" (page 5). 
+Activities that were similar were combined to clean the noise log (page 5). 
+Elimination of incomplete traces (page 5). 
+Removal of traces that did not end at valid endpoints (they do not mention them directly, but in the next point they mention A_Pending, O_Cancelled, and O_Refused) (page 5). </t>
+  </si>
+  <si>
+    <t>2- They assign to each activity the resource in charge of doing it (bank user or customer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6- (this part is out of order)
+For workflow events (workflow process) they calculate the averages for: 
+The number of times an activity is performed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3- Calculate the absolute frequency with which activities occur. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3- For each group, they calculate the percentage log coverage of their traces.
+7- For the first grouping 
+calculate the percentage of traces of each log that has that value. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4- Calculate the percentage of traces contained in these activities. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14- For each of the previous groups: 
+Filter traces with "A_Pending" activities (possibly apply an "activity filter") and calculate the ratio of times that activity occurs in that group, in percentages. 
+They filter traces with "A_Denied" activities (possibly apply an "activity filter") and calculate the rate of occurrence of that activity in that group, in percentages. 
+Filter traces with "A_Canceled" activities (possibly apply an activity filter) and calculate the rate of occurrence of that activity in that group, in percentages. </t>
+  </si>
+  <si>
+    <t>1- Perform activity filter with Disco, for all traces containing a specific activity.</t>
+  </si>
+  <si>
+    <t>11- They identify traces in which the offer is not sent by the bank (O_Sent) and ends up being cancelled (I suppose they use activity filter).</t>
+  </si>
+  <si>
+    <t>13- Map of the process of these traces</t>
+  </si>
+  <si>
+    <t>4- Generate on disk the process maps of the activities corresponding to each cluster.</t>
+  </si>
+  <si>
+    <t>5- Representation of the sequences of events of both parts.
+10- Representation of the sequences of events of both parts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2- Representation of process maps with the performance of activities associated with applications and offers. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2- Discovery of the process map of the filtered traces using Disco  </t>
+  </si>
+  <si>
+    <t>6- In both cases (satisfactory and unsatisfactory traces) make a map of the process using Disco:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- For interval 1 (see cell K2):
+Map of the process from the moment a request is filled until it is accepted: A_Submitted to A_Accepted  
+3- For interval 2 (look at cell K2):
+Process map from the time a request is accepted until an offer is sent: A_Accepted to O_Sent  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Map of the process representing the average cycle time between A_events (application events).  </t>
+  </si>
+  <si>
+    <t>1- Make a map of the process with all the traces indicating the median waiting time between activities and the frequency of each transition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5- Make with Celonis a map of the process flow from the beginning of the loan application (A_Create Application or A_Submitted) to the end (A_Pending, A_Cancelled, A_Denied), indicating cycle time in the map. </t>
   </si>
   <si>
     <r>
@@ -255,71 +443,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">1- Filtrado de las partes del proceso donde participa el cliente, desde A_Submit hasta O_Sent y desde W_Validating hasta A_Validating  (presupongo que aplican un “activity filter”).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-6- Filtrado de las partes del proceso en las que participa el banco, desde O_Sent hasta  A_Complete y desde A_Incomplete hasta W_Validating  (presupongo que aplican un "activity filter")</t>
-    </r>
-  </si>
-  <si>
-    <t>1- Utilizan el plugin “Replay a Log on Petri Net for Performance/Conformance Analysis” de ProM para descubrir los mapas de procesos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-4- Cálculo de la frecuencia absoluta con la que ocurre cada evento de aplicaciones y ofertas.
-</t>
-  </si>
-  <si>
-    <t>5- Consideran que las actividades de aplicaciones que requieren 
-un mayor waiting time y que no pertenecen al cliente 
-(dado que el banco no puede mejorar el rendimiento del cliente pero si el suyo) son “bottlenecks” . </t>
-  </si>
-  <si>
-    <t>9- Cálculo del processing time para los eventos de workflow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10- Representación de un histograma del cycle time de las trazas de aplicaciones. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11- (Mirar celda E41)
-A partir de la anterior representación agrupan las trazas de aplicaciones en cuatro grupos dependiendo del cycle time (posiblemente apliquen un performance filter): 
-Grupo 1: cycle time entre 0 y 5.72 días. 
-Grupo 2: cycle time entre 5.73 y 25.74 días. 
-Grupo 3: cycle time entre 25.75 y 34.32 días. 
-Grupo 4: cycle time entre 34.33 y 288.9 días. </t>
-  </si>
-  <si>
-    <t>12- Para cada uno de los anteriores grupos calculan cuantas trazas los forman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6- (esta parte está desordenada)
-Para los eventos del flujo de trabajo (proceso workflow) calculan los promedios para: 
-El número de trazas en las que está presente esa actividad </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6- (esta parte está desordenada)
-Para los eventos del flujo de trabajo (proceso workflow) calculan los promedios para: 
-El número de veces que se realiza una actividad. 
-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1- Cálculo del número de actividades distintas.</t>
+      <t>1- Calculation of the number of different activities.</t>
     </r>
     <r>
       <rPr>
@@ -334,812 +458,160 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5- Agrupación de los eventos que requieren un mayor waiting, dependiendo del waiting time que requieran (posiblemente apliquen varios “performance filters”) en tres grupos: 
-Grupo 1: waiting time entre 0 y 8 horas. 
-Grupo 2: waiting time entre 8 y 72 horas. 
-Grupo 3: waiting time superior a 72 horas.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">6- Cálculo del porcentaje de eventos que contiene cada grupo. </t>
-  </si>
-  <si>
-    <t>1- Realizan activity filter con Disco, para todas las trazas que contengan una actividad concreta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5- Identifican actividades que precisan de mayor processing time   </t>
-  </si>
-  <si>
-    <t>3- Comparan los valores obtenidos para processing y waiting time y deciden que el throughput time del proceso se corresponde con el waiting time (porque son valores relativamente mayores que los de processing time)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5- Agrupan los arcos filtrados en usuario (banco) o solicitante (cliente), según de quién dependa waiting time (lo suponen basándose en el significado de cada actividad y el flujo del proceso)  </t>
-  </si>
-  <si>
-    <t>9- Observando la gráfica anterior (celda G11) identifican el rol que propicia los valores más altos de waiting time</t>
-  </si>
-  <si>
-    <t>1- Filtran las trazas donde "offered amount"/"requested amount" &gt; 30.000  (posiblemente apliquen un “attribute filter)</t>
+    <t xml:space="preserve">4- For satisfactory and unsatisfactory traces, they obtain with Disco: 
+No. of activities </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6- (this part is out of order)
+For workflow events (workflow process) they calculate averages for: 
+the number of traces in which that activity is present </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3- For satisfactory and unsatisfactory traces obtained with Disco: 
+No. of traces </t>
   </si>
   <si>
     <t xml:space="preserve">
-2- Descubrimiento del mapa de procesos de las trazas filtradas usando Disco  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3- Calculan la mediana de cycle time  para cada actividad </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4- Calculan la mediana de  waiting time para cada actividad </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5- Identifican las actividades que precisan de mayor waiting time (por separado superan la suma del resto) como posibles bottlenecks. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6- Asocian estas actividades al banco o al cliente (por el contexto de la actividad)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1- Dividen las aplicaciones en 2 grupos (posiblemente usen activity filter en ambos casos): 
-Satisfactorias: Filtran las aplicaciones según si la última actividad de la traza es “A_Pending” (fueron aprobadas) 
-No satisfactorias: Filtran según si la última actividad es “A_Denied” o “A_Cancelled” (fueron canceladas o denegadas,) 
+12- They count the number of traces. </t>
+  </si>
+  <si>
+    <t>4- They count the number of traces previously grouped.
+7- Count the number of traces grouped previously.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2- For satisfactory and unsatisfactory traces obtained with Disco: 
+No. of events </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11- Calculate the cycle time of that variant (possibly apply an activity filter). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2- Calculate the averages of the cycle time of the events of the filtered parts (from A_Submit to O_Sent and from W_Validating to A_Validating). 
+7- Calculate the averages of the cycle time of the filtered part events (from O_Sent to A_Complete and from A_Incomplete to W_Validating). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3- For each event in the previous approach, calculate the average and median cycle time depending on the states that it may have.
+6- For each event in the previous approach, calculate the average and median cycle time depending on the states it may have. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Calculation of the average and median cycle time of the events of each log taking into account which event occurred before, in addition to calculating the percentage of traces of each log that perform them (page 6). 
+8- For the second grouping, calculate the average cycle time of the pairs of activities that require more cycle time as a function of the "loan goal" value.  </t>
+  </si>
+  <si>
+    <t>1- First define the cycle times to be calculated, depending on where it is calculated from and to (the reason for this approach is not specified): 
+The cycle time of the whole process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4- Calculation of the average cycle time of each of the four previous logs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5- Calculate the average cycle time for the whole process. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Calculate the average cycle time of the entire process.  </t>
+  </si>
+  <si>
+    <t>3- Calculate  cycle time as the sum of processing time and  waiting time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- First define the cycle times to be calculated, depending on from where it is calculated to where (the reason for this approach is not specified): 
+The cycle time between the activities A_Create_Application and A_Accepted. 
+The cycle time between the activities A_Accepted and A_Complete. 
+The cycle time between A_Complete and any of these activities 
+A_Pending 
+A_denied 
+A_Cancelled 
+The cycle time between A_Accepted and O_Create activities.  
+The cycle time between O_Create and any of these activities: 
+O_Cancelled 
+O_Accepted 
+O_Refused  
+They calculate the averages and medians of the cycle time for the above sequences of activities and represent them in a table (possibly applying "activity filters" to calculate those particular activity patterns). 
+They consider that patterns with minimum cycle times can represent an automatic process.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">4- Para las trazas satisfactorias y las no satisfactorias obtienen con Disco: 
-Nº de actividades 
+    <t xml:space="preserve">See cell J13. 
+5- For satisfactory and unsatisfactory traces calculate: median and average cycle time. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+4- Calculate the average cycle time according to the value taken by the case attribute for the previously filtered traces.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">3- Para las trazas satisfactorias y las no satisfactorias obtienen con Disco: 
-Nº de trazas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2- Para las trazas satisfactorias y las no satisfactorias obtienen con Disco: 
-Nº de eventos 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7- Identifican la actividad con mayor cycle time (tanto para trazas satisfactorias como no satisfactorias) y obtienen su frecuencia para considerarla como posible bottleneck </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9- Filtran las trazas que tienen cycle time mayor que el cycle time promedio total para separarlas de las que tienen cycle time menor que el promedio total (usan activity filter para seleccionar la primera ocurrencia de A_Create Application hasta la última ocurrencia de A_Pending y que el tiempo entre ambas sea &gt; 18 dias, usando performance filter) </t>
-  </si>
-  <si>
-    <t>2- Representan mediante histogramas el porcentaje de Solicitudes completadas de forma exitosa (A_Pending), Solicitudes denegadas (A_Denied), Solicitudes canceladas por el cliente (A_Cancelled) para los siguientes intervalos de waiting time:
-Para el cliente:
-Para el intervalo 1 de waiting time desde A_Submitted a A_Accepted
-4- Para el intervalo 2 de waiting time desde A_Accepted a O_Sent (Identifican una tendencia en el aumento de las cancelaciones a partir de waiting time igual a 2 semanas )
-5- Para el intervalo 3 para diferentes intervalos de waiting time A_Validating → W_Call incomplete files, A_Validating → A_Pending, A_Cancelled, A_Denied
-(Identifican una tendencia en el aumento de las solicitudes canceladas a medida que aumenta waiting time)
-Para diferentes intervalos de waiting time total del cliente.
-Para el banco:
-6- Para el intervalo A de waiting time desde O_Sent → A_Validating (Identifican un aumento en la cancelación a partir de waiting time igual a 30 días)
-7- Para el intervalo B de waiting time desde A_Incompletete → A_Validating (Identifican un aumento de solicitudes denegadas a partir de waiting time igual a 30 días )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10- Para diferentes intervalos de waiting time total del banco. Identifican en el histograma el intervalo de waiting time en el que es más probable que se produzca la cancelación por el cliente </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11- Identifican trazas en las que no ocurre el envío de la oferta por parte del banco (O_Sent) y acaba siendo cancelada (supongo que usan activity filter)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-12- Recuentan el nº de trazas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1- Eliminación de los siguientes atributos para simplificar el análisis de esta pregunta: “Credit Score”, “Number of Terms” y “First Withdrawal Amount” (página 5). 
-Las actividades que eran similares fueron combinadas para limpiar el log de ruido (página 5). 
-Eliminación de trazas incompletas (página 5). 
-Eliminación de trazas que no finalizaban en endpoints válidos (no los mencionan directamente, pero en el siguiente punto mencionan A_Pending, O_Cancelled, y O_Refused) (página 5). </t>
-  </si>
-  <si>
-    <t>5- Cálculo de los eventos que quieren mayores cycle times promedios para cada log y describen la razón por la que el cliente tarda tanto (deben presuponer de alguna forma que actividades hacen cada uno)</t>
-  </si>
-  <si>
-    <t>6- Agrupación de las trazas de cada log en función de los 3 valores más frecuentes y del resto de valores que se considera como una categoría única, de “loan goal” en cada log.
-Agrupación de las trazas de cada log en función de los 3 valores más frecuentes de “loan goal”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2- Dividen el log en cuatro logs dependiendo del endpoint  (página 5) (posiblemente apliquen distintos process Flow filters): 
-Grupo 1 (representa el 40% de las trazas originales y su endpoint es A_Pending): trazas en las que la aplicación se realizó correctamente y solo se realizó una oferta. 
-Grupo 2 (representa el 14% de las trazas originales y su endpoint es O_Cancelled después de A_Pending): trazas en las que la aplicación se realizó correctamente y se realizó más de una oferta. 
-Grupo 3 (representa el 32% de las trazas originales, y su endpoint es O_Cancelled después de que se produzca A_Cancelled): trazas en las que la aplicación fue cancelada. 
-Grupo 4 (representa el 11% de las trazas originales, y su endpoint es O_Refused después de A_Denied): trazas en las que la aplicación fue denegada. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1- Mapa del proceso representando el promedio de cycle time entre A_events (eventos de aplicación)  </t>
-  </si>
-  <si>
-    <t>2- Identifican en el mapa las actividades con los promedios de cycle time más altos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3- Evalúan a quién se deben las actividades con mayor cycle time (cliente o banco, según el contexto de las actividades) 
-Identifican que la gran mayoría son propiciados por el cliente  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4- Gráfico en Celonis representando la distribución de las trazas según su cycle time total </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5- Calculan el promedio de cycle time para el proceso completo </t>
-  </si>
-  <si>
-    <t>1- Realizan un mapa del proceso con todas las trazas indicando la mediana de waiting time entre actividades y la frecuencia de cada transición</t>
-  </si>
-  <si>
-    <t>4- Recuentan el nº de trazas agrupadas anteriormente.
-7- Recuentan el nº de trazas agrupadas anteriormente.</t>
-  </si>
-  <si>
-    <t>8- para los grupos relacionados con el banco, calculan el promedio de cycle time.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3- Para el subproceso más frecuente en el que el cliente espera por el banco: A_Concept --&gt;  A_Accepted agrupan las solicitudes de aplicaciones realizadas en la web de las realizadas en el propio banco. (grupos relacionados con el cliente)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-6- Para el subproceso más frecuente en el que el banco espera por el cliente: A_Complete --&gt;  A_Validating agrupan las trazas en las que se envía de forma online solo (O_Sent (online only)) y las que se envían online y por mail (O_Sent (online and mail). (grupos relacionados con el banco)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1- Calculan el promedio de cycle time del proceso completo  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5- Realizan con Celonis un mapa del flujo del proceso desde que se inicia la solicitud de préstamo (A_Create Application o A_Submitted) hasta que finaliza (A_Pending, A_Cancelled, A_Denied), indicando cycle time en el mapa </t>
-  </si>
-  <si>
-    <t>6- Observando el mapa identifican los 3 subprocesos con los valores de cycle time más altos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7- Identifican si los subprocesos con mayor cycle time (obtenidos en la celda O4) son ocasionados por el cliente o el banco (por el contexto de las actividades)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10- Comparan processing time con waiting time e identifican que la mayoría del tiempo se corresponde con waiting time ocasionado por el cliente </t>
-  </si>
-  <si>
-    <t>1- Calculan el promedio, mínimo y máximo del waiting time para todos los eventos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2- Calculan el promedio, mínimo y máximo del processing time para todos los eventos.
-Los eventos que tengan un processing time igual a cero son realizados por un sistema automático en parte 
-</t>
-  </si>
-  <si>
-    <t>3- Calculan el cycle time como la suma de processing time y waiting time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1- Calculan los waiting times promedios de las actividades. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2- Asignan a cada actividad el recurso encargado de hacerla (usuario del banco o cliente). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3- Calculan la frecuencia absoluta con la que se dan las actividades. </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4- Calculan el porcentaje de trazas que contienen dichas actividades.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">5- Consideran como bottleneck a la actividad con un mayor waiting time promedio. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1- Aplican la variante Hartigan-Wong del algoritmo K-Means de clustering sin especificar el número de clústeres mediante RefMod-Miner, para agrupar las actividades  en clústeres. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2- Representan las agrupaciones de las actividades en un mapa de calor (indican con colores la similitud de las actividades con los clústeres). </t>
-  </si>
-  <si>
-    <t>4- Generan en Disco los mapas de procesos de las actividades correspondientes a cada clúster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5- Calculan los promedios del cycle time de las actividades de cada clúster. 
-Calculan el mínimo, el máximo, la mediana y el promedio del cycle time de las actividades de cada clúster. </t>
-  </si>
-  <si>
-    <t>6- Para calcular los bottlenecks primero analizan que clústeres tienen mayores promedios del cycle time. Una vez identificados, calculan que actividades de esos clústeres requieren de un mayor cycle time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3- Para cada evento del anterior planteamiento calculan el promedio y la mediana del cycle time dependiendo de los estados que puede tener.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- Para cada evento del anterior planteamiento calculan el promedio y la mediana del cycle time dependiendo de los estados que puede tener. </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">
-(esta desordenado)
-8- Representan la distribución del cycle time mediante un diagrama de barras donde el eje X es el cycle time de las trazas en intervalos (por ejemplo, de 0 a 5 días) y el eje Y es el número de trazas que entran dentro de ese intervalo. 
-Representan la distribución del cycle time en los 30 últimos días del log mediante un diagrama de barras donde el eje X es el cycle time de las trazas en intervalos (por ejemplo, de 0 a 5 días) y el eje Y es el número de trazas que entran dentro de ese intervalo. 
-Representación de la evolución del promedio del cycle time por meses.
-Representación de la evolución de trazas completadas por meses. 
-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Cálculo del promedio y de la mediana del waiting time de las partes filtradas (donde el cliente espera al banco).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">5- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Calculan la mediana y el promedio del waiting time de esas partes del proceso (donde el banco espera al cliente),</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">1- Filtrado  de partes del proceso donde el cliente debe esperar al banco (supongo que aplican distintos ”activity filters” indicando donde deben empezar y acabar las partes): 
-A_Create application – A_Accepted 
-A Create application - A_Accepted 
-A_Complete – W_Validate application 
-O_Sent(mail and online) - W_Validate application 
-W_Call incomplete _files – W_Validate application 
-W_Call after offers – A_Cancelled 
-A_Complete – O_Create Offer 
-A_Incomplete – O_Create Offer 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">4- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Filtran partedes del proceso que consideran como aquellas en las que el sistema espera al usuario (supongo que aplican distintos” activity filters” indicando donde deben empezar y acabar las trazas de cada variante): 
-W_Complete application – W_Call after offers 
-W_Validate application – A_Pending/O_Refused</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">4- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Calculan los promedios del waiting time de los eventos de las partes filtradas  (desde A_Submit hasta O_Sent y desde W_Validating hasta A_Validating).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">9- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Calculan los promedios del waiting time de los eventos de las partes filtradas  (desde O_Sent hasta   A_Complete y y desde A_Incomplete hasta W_Validating). </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Calculan los promedios del processing time de los eventos de las partes filtradas  (desde A_Submit hasta O_Sent y desde W_Validating hasta A_Validating).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-8- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Calculan los promedios del processing time de los eventos de las partes filtradas  (desde O_Sent hasta   A_Complete y y desde A_Incomplete hasta W_Validating). </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">2- Calculan los promedios del cycle time de los eventos de las partes filtradas  (desde A_Submit hasta O_Sent y desde W_Validating hasta A_Validating). </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">7- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Calculan los promedios del cycle time de los eventos de las partes filtradas  (desde O_Sent hasta   A_Complete y y desde A_Incomplete hasta W_Validating). </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>14-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Para cada uno de los anteriores grupos: 
-Filtran las trazas con actividades “A_Pending” (posiblemente apliquen un “activity filter”) y calculan la ratio de veces que se produce esa actividad en ese grupo, en porcentajes. 
-Filtran las trazas con actividades “A_Denied” (posiblemente apliquen un “activity filter”) y calculan la ratio de veces que se produce esa actividad en ese grupo, en porcentajes. 
-Filtran las trazas con actividades “A_Canceled” (posiblemente apliquen un “activity filter”) y calculan la ratio de veces que se produce esa actividad en ese grupo, en porcentajes. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Representación de los mapas de procesos con el rendimiento de las actividades asociadas a aplicaciones y a ofertas.  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">3- Para cada evento de aplicaciones realizan los siguientes pasos: 
--Cálculo del promedio del waiting time. 
--Cálculo de la desviación estándar del waiting time. 
-Realizan el mismo planteamiento para los eventos de ofertas.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8- Calculan el promedio del waiting time de los eventos del flujo de trabajo.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">13- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Para cada uno de los anteriores grupos Calculan el porcentaje que representan. </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">4- Obtienen el promedio de waiting time para cada actividad 
-Haciendo uso de Disco obtienen para cada actividad:   
-Tiempo promedio en espera desde otra actividad: calculan promedio de waiting time tras una actividad concreta (cuánto tiempo espera la actividad analizada hasta que pueda comenzar, después del final de una actividad que ocurra inmediatamente antes que la actividad analizada. Especificado para cada una de las actividades entrantes) 
-Total de ocurrencias con respecto al tiempo promedio de espera: calculan el nº de ocurrencias para cada waiting time (Luego de analizar los tiempos de espera de otras actividades, se verificó la frecuencia de cada actividad que ocurra inmediatamente antes que la actividad analizada) 
-Tiempo total (valor aproximado): multiplican los dos resultados anteriores (cada waiting time por su ocurrencia) para cada actividad que ocurra inmediatamente antes que la actividad analizada. Además, todos los valores se establecieron en horas, por lo que se considera un valor aproximado 
-Sumatorio de tiempo total / Sumatorio de total de ocurrencias (valor aproximado): esta categoría se refiere a la división de la suma de los valores de tiempo total (categoría anterior) por la suma de los valores de ocurrencias (tercera categoría), analizando el tiempo total de todos los valores entrantes. actividades y dividiendo por la frecuencia total de actividades. También encontramos un valor promedio general que podría compararse con los demás. También se consideran valores aproximados. 
-7- Calculan el promedio de waiting time para cada actividad en la que  espera el cliente, y se compara con el del banco (según el significado de cada actividad y el contexto)  </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">2- El promedio, mediana y valor máximo de waiting time para cada arco entre actividades </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">4- Además, calculan el promedio de waiting time para cada arco entre parejas de actividades y filtran los arcos entre actividades cuya duración media sea mayor a 1 día (posiblemente usen performance filter)
-6- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Calculan el porcentaje de waiting time total asociado al banco 
-Identifican los 12 arcos que precisan de mayor waiting time y obtienen para cada uno: 
-Qué actividades conecta 
-Si depende del usuario o solicitante 
-Waiting time total 
-Promedio, mediana, y máximo valor de waiting time 
-Frecuencia absoluta </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>El promedio, mediana y valor máximo de processing time para cada actividad</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>8-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Representan gráficamente el ratio del promedio, mediana, máximo y total de waiting time para el solicitante y el usuario.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>6-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> En ambos casos (trazas satisfactorias y no satisfactorias) realizan un mapa del proceso usando Disco:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mirar celda J13</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">5- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Para las trazas satisfactorias y las no satisfactorias calculan: mediana y promedio cycle time </t>
-    </r>
+    <t>8- for bank-related groups, calculate the average cycle time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2- Calculate the average cycle time in the following cases: (possibly use activity filter to filter out the traces of interest in the following cases)  
+Traces ending in A_Pending 
+Traces ending in A_Denied 
+Traces ending in A_Cancelled 
+Calculate the average cycle time depending on who starts the application: (possibly using activity filter)  
+Traces where the application is originated by the client, the first activity is A_Submitted 
+Traces where the application is originated by the bank, the first activity is A_Create Application </t>
+  </si>
+  <si>
+    <t>7- Calculate the cycle time of the activities of the workflow process.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3- Calculate the median cycle time for each activity. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5- Calculate the cycle time averages of the activities in each cluster. 
+Calculate the minimum, maximum, median and average cycle time of the activities in each cluster. </t>
+  </si>
+  <si>
+    <t>2- Calculate the average and median waiting time of the filtered parts (where the customer waits for the bank).
+5- Calculate the median and average waiting time of those parts of the process (where the bank waits for the customer),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4- Calculate the averages of the waiting time of the events of the filtered parts (from A_Submit to O_Sent and from W_Validating to A_Validating). 
+9- Calculate the averages of the waiting time of the events of the filtered parts (from O_Sent to A_Complete and from A_Incomplete to W_Validating). </t>
+  </si>
+  <si>
+    <t>3- For each application event they perform the following steps: 
+-Calculation of the average waiting time. 
+-Calculation of the standard deviation of the waiting time. 
+Perform the same approach for the offer events.
+8- Calculate the average waiting time of the workflow events.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2- Calculation of the average waiting time of the events.
+7- Calculation of the average of the waiting time of each event. 
+9- (out of order, See cell F15)
+Study of the variation of the average waiting time of the processes of each group including the pairs of activities that can be bottlenecks and not including them. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4- Obtain the average waiting time for each activity. 
+Using Disco they obtain for each activity:   
+Average waiting time from another activity: calculate average waiting time after a specific activity (how long the analysed activity waits until it can start, after the end of an activity that occurs immediately before the analysed activity. Specified for each of the incoming activities). 
+Total occurrences with respect to the average waiting time: calculate the number of occurrences for each waiting time (After analysing the waiting times of other activities, the frequency of each activity occurring immediately before the analysed activity was checked). 
+Total time (approximate value): multiply the two previous results (each waiting time by its occurrence) for each activity occurring immediately before the analysed activity. In addition, all values were established in hours, so it is considered an approximate value. 
+Sum of total time / Sum of total occurrences (approximate value): this category refers to the division of the sum of the total time values (previous category) by the sum of the occurrence values (third category), analysing the total time of all incoming values. activities and dividing by the total frequency of activities. We also found an overall average value that could be compared with the others. Approximate values are also considered. 
+7- Calculate the average waiting time for each activity in which the customer waits, and compare it with that of the bank (according to the meaning of each activity and the context).  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2- The average, median and maximum waiting time for each arc between activities. 
+4- In addition, they calculate the average waiting time for each arc between pairs of activities and filter out the arcs between activities whose average duration is longer than 1 day (possibly using performance filtering).
+6- Calculate the percentage of total waiting time associated with the bank. 
+Identify the 12 arcs that require the most waiting time and obtain for each one: 
+Which activities it connects 
+If it depends on the user or requester 
+Total waiting time 
+Average, median, and maximum value of waiting time 
+Absolute frequency </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4- Calculate the median waiting time for each activity. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8- Calculate average waiting time when client participates (successful traces) (they assume this) (possibly using activity filter):  
+A_Complete --&gt; W_Validate application 
+A_Incomplete --&gt; W_Validate application 
+12- For unsatisfactory traces: 
+Calculate average waiting time from A_Complete --&gt; W_Validate application  </t>
   </si>
   <si>
     <r>
@@ -1153,56 +625,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Calculan el promedio de waiting time cuando participa el cliente (trazas satisfactorias) (lo suponen) (posiblemente usen activity filter):  
-A_Complete --&gt; W_Validate application 
-A_Incomplete --&gt;  W_Validate application 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-12- Para las trazas no satisfactorias: 
-Calculan el promedio de waiting time desde A_Complete --&gt; W_Validate application  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">11- Para las trazas no satisfactorias: Representan mediante un histograma los tiempos de W_Validate application por horas del día (es una de las actividades con mayor duración tanto en trazas aprobadas como en las canceladas, y se debe a la espera por la respuesta del cliente).
-10- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Realizan 3 histogramas:
-Realizan un histograma de las trazas según su promedio de cycle time.
-Realizan un histograma del número de ofertas por traza para aquellas trazas con cycle time mayor que el promedio total de cycle time
-Realizan un histograma del número de ofertas por traza para aquellas trazas con cycle time menor que el promedio total de cycle time</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">8- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Calculan waiting time total del cliente sumando waiting time promedio de los siguientes subprocesos: 
+      <t xml:space="preserve">Calculate waiting time total of the custormer adding the average waiting time of these subprocesses: 
 A_Submitted --&gt; A_Accepted
 A_Accepted --&gt; O_Sent
 A_Validating → W_Call incomplete files, A_Validating → A_Pending, A_Cancelled, A_Denied
@@ -1227,47 +650,10 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Calculan waiting time total del banco sumando waiting time promedio de los siguientes subprocesos: 
+      <t xml:space="preserve">  Calculate waiting time total of the bank adding the average waiting time of these subprocesses: 
 O_Sent → A_Validating
 A_Incompletete → A_Validating
 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Para cada grupo calculan el porcentaje que representan sus trazas (percentage log coverage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">7- Para la primera agrupación 
-calculan el porcentaje de trazas de cada log que tiene ese valor. </t>
     </r>
   </si>
   <si>
@@ -1280,20 +666,19 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-2- Para las partes del proceso donde el cliente espera por el banco (Waiting time entre A_Concept à  A_Accepted 
-Waiting time entre A_Validating à O_Accepted 
-Waiting time entre O_Returned à O_Accepted 
-Waiting time entre O_Returned à A_Incomplete 
-Waiting time entre A_Incomplete à O_Accepted ) calculan:
--Mediana y promedio de waiting time (en días) 
--Frecuencia de cada subproceso e identifican el más frecuente para el cliente y para el banco
-5- Para las partes del proceso donde el banco espera por el cliente (Waiting time entre A_Complete --&gt; A_Validating 
-Waiting time entre A_Incomplete --&gt;  A_Validating 
-Waiting time entre A_Complete --&gt; A_Canceled 
-Waiting time entre A_Complete --&gt; O_Create Offer) calculan:
--Mediana y promedio de waiting time (en días) 
--Frecuencia de cada subproceso e identifican el más frecuente para el cliente y para el banco
-</t>
+2- For the parts of the process where the customer waits for the bank (Waiting time between A_Concept à A_Accepted 
+Waiting time between A_Validating à O_Accepted 
+Waiting time between O_Returned à O_Accepted 
+Waiting time between O_Returned à A_Incomplete 
+Waiting time between A_Incomplete à O_Accepted ) calculate:
+-Average and median waiting time (in days) 
+Frequency of each sub-process and identify the most frequent one for the client and for the bank.
+5- For the parts of the process where the bank waits for the client (Waiting time between A_Complete --&gt; A_Validating 
+Waiting time between A_Incomplete --&gt; A_Validating 
+Waiting time between A_Complete --&gt; A_Canceled 
+Waiting time between A_Complete --&gt; O_Create Offer) calculate:
+-Average and median waiting time (in days) 
+Frequency of each sub-process and identify the most frequent one for the customer and for the bank.</t>
     </r>
     <r>
       <rPr>
@@ -1319,23 +704,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">3- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Seleccionan las siguientes trazas según el valor que toma el atributo case: LoanGoal (posiblemente usen attribute filter y activity filter para filtrar las trazas de interés en los siguientes casos): 
-Trazas donde case: LoanGoal toma el valor de algún medio de transporte (Car, Boat, Motorcycle, Caravan / Camper)  
-Trazas donde case: LoanGoal toma el valor de algún medio de transporte (Car, Boat, Motorcycle, Caravan / Camper) y la actividad final es A_Pending </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="12"/>
         <color theme="5"/>
@@ -1343,21 +711,10 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">9- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Calculan waiting time total (en días) para los 3 procesos de flujo de trabajo (workflow processes) relacionados con los subprocesos con mayor cycle time identificados (mirar celda O4)
+      <t xml:space="preserve">9- Calculate total waiting time (in days) for the 3 workflow processes related to the sub-processes with the highest cycle time identified (see cell O4).
 W_Call after offers 
 W_Validate application 
-W_Call incomplete files 
-</t>
+W_Call incomplete files </t>
     </r>
     <r>
       <rPr>
@@ -1371,6 +728,22 @@
     </r>
   </si>
   <si>
+    <t>1- Calculate the average, minimum and maximum waiting time for all events.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Calculate the average waiting times of the activities. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3- Calculate the averages of the processing time of the events of the filtered parts (from A_Submit to O_Sent and from W_Validating to A_Validating). 
+8- Calculate the averages of the processing time of the events of the filtered parts (from O_Sent to A_Complete and from A_Incomplete to W_Validating). </t>
+  </si>
+  <si>
+    <t>9- Calculation of the processing time for workflow events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- The average, median and maximum value of processing time for each activity. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1379,21 +752,10 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">8- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Calculan processing time total (en días)  para los 3 procesos de flujo de trabajo (workflow processes) relacionados con los subprocesos con mayor cycle time identificados (mirar celda O4)
+      <t xml:space="preserve">8- Calculate total processing time (in days) for the 3 workflow processes related to the sub-processes with the highest cycle time identified (see cell O4).
 W_Call after offers 
 W_Validate application 
-W_Call incomplete files 
-</t>
+W_Call incomplete files </t>
     </r>
     <r>
       <rPr>
@@ -1407,16 +769,27 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5-</t>
-    </r>
+    <t xml:space="preserve">2- Calculate the average, minimum and maximum processing time for all events.
+Events that have a processing time equal to zero are performed by an automatic system in part. 
+</t>
+  </si>
+  <si>
+    <t>3- Compare the values obtained for processing and waiting time and decide that the throughput time of the process corresponds to the waiting time (because they are relatively higher values than the processing time).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10- They compare processing time with waiting time and identify that most of the time corresponds to waiting time caused by the customer. </t>
+  </si>
+  <si>
+    <t>2- In this analysis, they deduce that the events with the status "Start" must belong to the bank, so they will consult events that have this status or that occur before or after these events.</t>
+  </si>
+  <si>
+    <t> 5- In this analysis they deduce that the activities related to the return of an offer (O_Returned activity) must belong to the customer, so they are going to select events that are related to the O_Returned activity.</t>
+  </si>
+  <si>
+    <t>1- Filtering of the parts of the process where the client is involved, from A_Submit to O_Sent and from W_Validating to A_Validating (I assume that they apply an activity filter).
+6- Filtering of the parts of the process involving the bank, from O_Sent to A_Complete and from A_Incomplete to W_Validating (I assume they apply an activity filter).</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1425,8 +798,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Representación de las secuencias de eventos de ambas partes.
-</t>
+      <t>1- Filtering of parts of the process where the customer has to wait for the bank (I guess they apply different "activity filters" indicating where the parts should start and end): 
+A_Create application - A_Accepted 
+A_Create application - A_Accepted 
+A_Complete - W_Validate application 
+O_Sent(mail and online) - W_Validate application 
+W_Call incomplete _files - W_Validate application 
+W_Call after offers - A_Cancelled 
+A_Complete - O_Create Offer 
+A_Incomplete - O_Create Offer 
+4- They filter out parts of the process that they consider to be those where the system is waiting for the user (I suppose they apply different activity filters indicating where the traces of each variant should start and end): 
+W_Complete application - W_Call after offers 
+W_Validate application - A_Pending/O_Refused</t>
     </r>
     <r>
       <rPr>
@@ -1439,6 +822,22 @@
       <t xml:space="preserve">
 </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">5- Group the filtered arcs into user (bank) or requester (customer), depending on who the waiting time depends on (they assume this based on the meaning of each activity and the flow of the process). </t>
+  </si>
+  <si>
+    <t> 4- In addition, they calculate the absolute frequency with which the states occur in each event. 
+7- In addition, they calculate the absolute frequency with which the states occur in each event.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4- Calculation of the absolute frequency with which each event of applications and offers occurs.
+</t>
+  </si>
+  <si>
+    <t>8- Identification of the resources involved in each event (bank user or applicant).</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1447,10 +846,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>10- Representación de las secuencias de eventos de ambas partes.</t>
+      <t xml:space="preserve">
+Count of resources involved in each group (e.g. in group 1 there may be 3 events of which 2 are handled by the applicant and only 1 by the bank).  
+</t>
     </r>
-  </si>
-  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">9- Filter traces that have cycle time greater than the total average cycle time to separate them from those that have cycle time less than the total average (use activity filter to select from the first occurrence of A_Create Application to the last occurrence of A_Pending and that the time between both is &gt; 18 days, using performance filter). </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+6- Represent in a bar chart the waiting time of each activity for the clients (hours). 
+Represent in a bar chart the waiting time of each activity for the bank (hours). </t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1459,11 +879,81 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">3- Para determinar qué actividades pueden requerir de más tiempo (bottlenecks), consideran que: 
-La primera actividad de cada traza no se realiza tanto por el solicitante (cliente) como por el usuario (banco). 
--Las actividades cuyo “waiting time” es cero son eliminadas 
-Cálculo de los eventos que requieren un mayor waiting time dependiendo del evento que ocurra antes 
+      <t xml:space="preserve">
 </t>
+    </r>
+  </si>
+  <si>
+    <t>8- Graph the ratio of average, median, maximum and total waiting time for the applicant and the user.</t>
+  </si>
+  <si>
+    <t>2- Represent by means of histograms the percentage of successfully completed Requests (A_Pending), Denied Requests (A_Denied), Requests cancelled by the client (A_Cancelled) for the following waiting time intervals:
+For client:
+For the waiting time interval 1 from A_Submitted to A_Accepted
+4- For the interval 2 of waiting time from A_Accepted to O_Sent (They identify a tendency in the increase of cancellations from waiting time equal to 2 weeks).
+5- For interval 3 for different waiting time intervals A_Validating → W_Call incomplete files, A_Validating → A_Pending, A_Cancelled, A_Denied
+(Identify a trend in the increase of cancelled requests as the waiting time increases.)
+For different customer total waiting time intervals.
+For the bank:
+6- For waiting time interval A from O_Sent → A_Validating (Identify an increase in cancellation from waiting time equal to 30 days).
+7- For waiting time interval B from A_Incompletete → A_Validating (Identify an increase in denied requests from waiting time equal to 30 days).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(it is unordered)
+8- Represent the cycle time distribution by means of a bar chart where the X-axis is the cycle time of the traces in intervals (e.g. from 0 to 5 days) and the Y-axis is the number of traces that fall within that interval. 
+Represent the distribution of the cycle time in the last 30 days of the log by a bar chart where the X-axis is the cycle time of the traces in intervals (e.g. from 0 to 5 days) and the Y-axis is the number of traces falling within that interval. 
+Representation of the evolution of the average cycle time per month.
+Representation of the evolution of completed traces per month. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10- Representation of a cycle time histogram of application traces. </t>
+  </si>
+  <si>
+    <t>11- For unsatisfactory traces: They represent by means of a histogram the times of W_Validate application by hours of the day (it is one of the activities with the longest duration in both approved and cancelled traces, and it is due to the wait for the client's response).
+10- Perform 3 histograms:
+They make a histogram of the traces according to their average cycle time.
+Make a histogram of the number of offers per trace for those traces with a cycle time greater than the total average cycle time.
+Make a histogram of the number of bids per trace for those traces with cycle time less than the total average cycle time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4- Celonis graph representing the distribution of traces according to their total cycle time. </t>
+  </si>
+  <si>
+    <t>Represent histograms of cycle time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9- Consider as "bottleneck" the execution of several consecutive activities depending on their status, and that considerably increase the average cycle time of the whole process.
+Apply the same bottleneck approach, but only for the traces of the last 30 days of the log (possibly apply a timeframe filter). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10- For different total bank waiting time intervals. Identify in the histogram the waiting time interval in which cancellation by the customer is most likely to occur. </t>
+  </si>
+  <si>
+    <t>5- Calculation of the events they want to cycle times averages for each log and describe the reason why the client is taking so long (they must somehow assume what activities each one does).</t>
+  </si>
+  <si>
+    <t>6- Looking at the map, identify the 3 sub-processes with the highest cycle time values.</t>
+  </si>
+  <si>
+    <t>5- They consider that application activities that require a longer waiting time and that do not belong to the customer 
+a longer waiting time and which do not belong to the customer 
+(since the bank cannot improve the customer's performance but can improve its own) are "bottlenecks". </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3- To determine which activities may require more time (bottlenecks), they consider that: 
+The first activity of each trace is not performed by both the requester (customer) and the user (bank). 
+-Activities whose waiting time is zero are eliminated. 
+Calculation of the events that require a longer waiting time depending on which event occurs first. </t>
     </r>
     <r>
       <rPr>
@@ -1478,47 +968,12 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">2- Cálculo del promedio del waiting time de los eventos.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">7- Cálculo del promedio del waiting time de cada evento. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">9- (fuera de orden, Mirar celda F15)
-Estudio de la variación del waiting time promedio de los procesos de cada grupo incluyendo los pares de actividades que pueden ser “bottlenecks” y sin incluirlos. </t>
-    </r>
+    <t xml:space="preserve">5- Identify activities that require more processing time </t>
   </si>
   <si>
     <r>
       <t xml:space="preserve">
-7- Identifican posibles bottlenecks basándose en las actividades (arcos) con mayores valores del promedio y mediana de waiting time. 
+7- Identify possible bottlenecks based on the activities (arcs) with the highest average and median waiting time values. 
 </t>
     </r>
     <r>
@@ -1534,268 +989,82 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">
-6- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Representan en un diagrama de barras waiting time de cada actividad para los clientes (horas). 
-Representan en un diagrama de barras waiting time de cada actividad para el banco (horas). 
+    <t xml:space="preserve">5- Identify the activities that require the most waiting time (individually they exceed the sum of the rest) as possible bottlenecks. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7- Identify the activity with the highest cycle time (for both satisfactory and unsatisfactory traces) and obtain its frequency to consider it as a possible bottleneck. </t>
+  </si>
+  <si>
+    <t>2- Identify on the map the activities with the highest cycle time averages.</t>
+  </si>
+  <si>
+    <t>4- Consider the event with the highest processing time as a bottleneck. 
+4- Consider as bottleneck the event with the maximum cycle time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5- They consider the activity with the highest average waiting time as bottleneck. </t>
+  </si>
+  <si>
+    <t>6- To calculate bottlenecks, they first analyse which clusters have the highest average cycle times. Once identified, they calculate which activities in those clusters require a higher cycle time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4- Determine which role is involved: the bank user or the applicant (possibly apply a performance filter). </t>
+  </si>
+  <si>
+    <t>9- Looking at the previous graph (cell G11), identify the role that leads to the highest waiting time values.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6- They associate these activities with the bank or the client (because of the context of the activity).  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3- They assess to whom the activities with the highest cycle time are due (customer or bank, depending on the context of the activities). 
+They identify that most of them are caused by the customer.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7- Identify whether the sub-processes with the highest cycle time (obtained in cell O4) are caused by the client or the bank (by the context of the activities).  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10- For those activities (bottlenecks) they calculate the percentage of traces containing those activities in sequence with those states. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13- For each of the above groups, calculate the percentage they represent. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- They divide the applications into 2 groups (possibly using activity filter in both cases): 
+Satisfactory: Filter the applications according to whether the last activity of the trace is "A_Pending" (they were approved). 
+Unsatisfactory: Filter according to whether the last activity is "A_Denied" or "A_Cancelled" (they were cancelled or denied). 
 </t>
-    </r>
-  </si>
-  <si>
-    <t>Representar mapa de procesos con frecuencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1- Para el intervalo 1 (mirar celda K2):
-Mapa del proceso desde que se rellena una solicitud hasta que se acepta: A_Submitted à A_Accepted  
-3- Para el intervalo 2 (mirar celda K2):
-Mapa de procesos desde que se acepta una solicitud hasta que se envía una oferta: A_Accepted à O_Sent  
-</t>
-  </si>
-  <si>
-    <t>13- Mapa del proceso de estas trazas</t>
-  </si>
-  <si>
-    <t>2- En este análisis deducen que los eventos  con el estado “Start” deben pertenecer al banco, por ese motivo van a consultar eventos que tengan ese estado o que ocurren antes o despues de dichos eventos.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Recuento de los recursos involucrados en cada grupo (por ejemplo, en el grupo 1 puede haber 3 eventos de los cuales 2 se encarga el solicitante y solo uno 1 que se encarga el banco).  
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>8- Identificación de los recursos involucrados en  cada evento (usuario del banco o solicitante).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4- Determinan que rol participa: el usuario del banco o el solicitante (posiblemente apliquen un performance filter). </t>
-  </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5- En este análisis deducen que las actividades relacionadas con la devolución de una oferta (actividad O_Returned) deben pertenecer al cliente,  por lo que van a seleccionar eventos que estén relacionadas con la actividad O_Returned.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- </t>
-    </r>
-  </si>
-  <si>
-    <t>4- Consideran como bottleneck al evento que tiene un mayor processing time 
-4- Consideran como bottleneck el evento cuyo cycle time es máximo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4- Cálculo del cycle time promedio de cada uno de los cuatro logs anteriores. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Cálculo del promedio y de la mediana del cycle time de los eventos de cada log teniendo en cuenta que evento ocurría antes, además de calcular el porcentaje de trazas de cada log que los realizan (página 6). 
-8- Para la segunda agrupación calculan el cycle time promedio de los pares de actividades que requieren más cycle time en función del valor de “loan goal”.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-4- Calculan el promedio de cycle time según el valor que toma el atributo case para las trazas filtradas anteriormente.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2- Calculan el promedio de cycle time en los siguientes casos: (posiblemente usen activity filter para filtrar las trazas de interés en los siguientes casos)  
-Trazas que finalizan en A_Pending 
-Trazas que finalizan en A_Denied 
-Trazas que finalizan en A_Cancelled 
-Calculan el promedio de cycle time según quién comience la aplicación: (posiblemente usen activity filter)  
-Trazas donde la aplicación es originada por el cliente, la primera actividad es A_Submitted 
-Trazas donde la aplicación es originada por el banco, la primera actividad es A_Create Application </t>
-  </si>
-  <si>
-    <t>7- Calculan el cycle time de las actividades del proceso de workflow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1- Primero definen los cycle times que van a calcular, dependiendo desde donde se calcula hasta donde (no se especifica el porqué de este planteamiento): 
-El cycle time entre las actividades A_Create_Application y A_Accepted. 
-El cycle time entre las actividades A_Accepted y A_Complete. 
-El cycle time entre A_Complete y cualquiera de estas actividades 
-A_Pending 
-A_denied 
-A_Cancelled 
-El cycle time entre las actividades A_Accepted y  O_Create  
-El cycle time entre O_Create y cualquiera de estas actividades: 
-O_Cancelled 
-O_Accepted 
-O_Refused  
-Calculan los promedios y las medianas del cycle time para las secuencias de actividades mencionadas y los representan en una tabla (posiblemente apliquen “activity filters” para calcular esos patrones de actividades concretos). 
-Consideran que los patrones con cycle times mínimos pueden representar un proceso automático
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11- Calculan el cycle time de esa variante (posiblemente apliquen un “activity filter”). </t>
-  </si>
-  <si>
-    <t>Previous considerations</t>
-  </si>
-  <si>
-    <t>Filter traces by attributes</t>
-  </si>
-  <si>
-    <t>Discover process maps</t>
-  </si>
-  <si>
-    <t>Represent heatmaps</t>
-  </si>
-  <si>
-    <t>Preprocess the traces of the logs</t>
-  </si>
-  <si>
-    <t>Assign resource to each activity</t>
-  </si>
-  <si>
-    <t>Calculate frequency of activities</t>
-  </si>
-  <si>
-    <t>Calculate percentage of traces</t>
-  </si>
-  <si>
-    <t>Filter traces by activities</t>
-  </si>
-  <si>
-    <t>Represent process map with cycle time</t>
-  </si>
-  <si>
-    <t>Calculate number of activities</t>
-  </si>
-  <si>
-    <t>Calculate number of traces</t>
-  </si>
-  <si>
-    <t>Calculate number of events</t>
-  </si>
-  <si>
-    <t>Calculate cycle time of a fragment of the process for a subset of traces</t>
-  </si>
-  <si>
-    <t>Calculate cycle time of only a subset of pairs of events for all traces</t>
-  </si>
-  <si>
-    <t>Calculate cycle time for all pairs of events for each subset of traces</t>
-  </si>
-  <si>
-    <t>Calculate cycle time for all pairs of events for all traces</t>
-  </si>
-  <si>
-    <t>Calculate cycle time of a fragment of the process for all traces</t>
-  </si>
-  <si>
-    <t>Calculate cycle time of the whole process for each subset of traces</t>
-  </si>
-  <si>
-    <t>Calculate cycle time of the whole process for a subset of traces</t>
-  </si>
-  <si>
-    <t>Calculate cycle time of a fragment of the process for each subset of traces</t>
-  </si>
-  <si>
-    <t>Calculate cycle time of only a subset of pairs of events for a subset of traces</t>
-  </si>
-  <si>
-    <t>Calculate waiting time</t>
-  </si>
-  <si>
-    <t>Calculate processing time</t>
-  </si>
-  <si>
-    <t>Compare waiting time with processing time</t>
-  </si>
-  <si>
-    <t>Filter events by activities</t>
-  </si>
-  <si>
-    <t>Group activities by role</t>
-  </si>
-  <si>
-    <t>Calculate frequency of events</t>
-  </si>
-  <si>
-    <t>Identify resources by activities</t>
-  </si>
-  <si>
-    <t>Calculate frequency of resources</t>
-  </si>
-  <si>
-    <t>Filter traces by cycle time</t>
-  </si>
-  <si>
-    <t>Represent bar charts of waiting time</t>
-  </si>
-  <si>
-    <t>Represent histograms of waiting time</t>
-  </si>
-  <si>
-    <t>Identify sub-processes as bottlenecks applying temporal performance criteria</t>
-  </si>
-  <si>
-    <t>Identify activities as bottlenecks applying temporal performance criteria and statistical measures</t>
-  </si>
-  <si>
-    <t>Identify rol associated with bottlenecks</t>
-  </si>
-  <si>
-    <t>Calculate percentages</t>
-  </si>
-  <si>
-    <t>Group traces depending on attributes</t>
-  </si>
-  <si>
-    <t>Group traces by activities</t>
-  </si>
-  <si>
-    <t>Group traces by waiting time</t>
-  </si>
-  <si>
-    <t>Grouping traces by cycle time</t>
-  </si>
-  <si>
-    <t>Calculate percentage of events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2- Split the log into four logs depending on the endpoint (page 5) (possibly applying different process Flow filters): 
+Group 1 (represents 40% of the original traces and its endpoint is A_Pending): traces where the application was successful and only one bid was made. 
+Group 2 (represents 14% of the original traces and its endpoint is O_Cancelled after A_Pending): traces where the application was successful and more than one bid was made. 
+Group 3 (represents 32% of the original traces, and its endpoint is O_Cancelled after A_Cancelled): traces where the application was cancelled. 
+Group 4 (represents 11% of the original traces, and its endpoint is O_Refused after A_Denied): traces where the application was denied. </t>
+  </si>
+  <si>
+    <t>6- Grouping of the traces of each log according to the 3 most frequent values and the rest of the values considered as a single "loan goal" category in each log.
+Grouping of the traces of each log according to the 3 most frequent values of "loan goal".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5- Grouping of events that require a longer waiting time, depending on the waiting time they require (possibly applying several performance filters) into three groups: 
+Group 1: waiting time between 0 and 8 hours. 
+Group 2: waiting time between 8 and 72 hours. 
+Group 3: waiting time greater than 72 hours. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11- (Look at cell E41)
+From the above representation they group the application traces into four groups depending on the cycle time (possibly applying a performance filter): 
+Group 1: cycle time between 0 and 5.72 days. 
+Group 2: cycle time between 5.73 and 25.74 days. 
+Group 3: cycle time between 25.75 and 34.32 days. 
+Group 4: cycle time between 34.33 and 288.9 days. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6- Calculation of the percentage of events contained in each group. </t>
+  </si>
+  <si>
+    <t>12- For each of the above groups, calculate how many traces form them.</t>
   </si>
 </sst>
 </file>
@@ -1948,7 +1217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2057,6 +1326,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2077,9 +1349,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Manuel Resinas" id="{91AAA540-750B-A049-A350-2B84D23BCDB9}" userId="S::resinas@us.es::03212896-fb2f-4e95-9dcf-71df1a9d8c3f" providerId="AD"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2377,17 +1647,6 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="J39" dT="2021-03-26T09:02:14.69" personId="{91AAA540-750B-A049-A350-2B84D23BCDB9}" id="{5E0421D1-3F93-924A-84EF-01F3DFA2A63E}">
-    <text>El segundo párrafo, ¿no es la versión genérica del tercero y el cuarto?</text>
-  </threadedComment>
-  <threadedComment ref="J44" dT="2021-03-26T09:29:49.90" personId="{91AAA540-750B-A049-A350-2B84D23BCDB9}" id="{E7842EE3-3735-0745-AA4F-112D6C40BC20}">
-    <text>Referenciar esta celda en las que necesitan el resultado que se calcula aquí</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699D5F21-1934-124B-A21E-AF03F7D49EC0}">
   <sheetPr>
@@ -2395,9 +1654,9 @@
   </sheetPr>
   <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="50" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A20" sqref="A20"/>
+      <selection pane="topRight" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2478,41 +1737,41 @@
     </row>
     <row r="2" spans="1:18" ht="272.10000000000002" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="11" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="16" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="183" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="2"/>
@@ -2520,36 +1779,36 @@
       <c r="E3" s="2"/>
       <c r="F3" s="7"/>
       <c r="I3" s="11" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="K3" s="2"/>
       <c r="O3" s="12" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:18" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="2"/>
       <c r="D4" s="11"/>
       <c r="E4" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F4" s="7"/>
       <c r="K4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="11" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="2"/>
@@ -2560,12 +1819,12 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="11" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="281.10000000000002" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>147</v>
+        <v>23</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="2"/>
@@ -2574,14 +1833,14 @@
       <c r="F6" s="7"/>
       <c r="K6" s="2"/>
       <c r="L6" s="30" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
-        <v>148</v>
+        <v>24</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="2"/>
@@ -2592,30 +1851,30 @@
       <c r="L7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="2"/>
       <c r="D8" s="11"/>
       <c r="E8" s="13" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="F8" s="7"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="2"/>
@@ -2624,29 +1883,29 @@
       <c r="F9" s="7"/>
       <c r="K9" s="2"/>
       <c r="L9" s="11" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="P9" s="2"/>
-      <c r="Q9" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="Q9" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="2"/>
       <c r="D10" s="11"/>
       <c r="E10" s="3" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="11" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="L10" s="11"/>
       <c r="P10" s="2"/>
@@ -2654,7 +1913,7 @@
     </row>
     <row r="11" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="2"/>
@@ -2662,64 +1921,64 @@
       <c r="E11" s="3"/>
       <c r="F11" s="7"/>
       <c r="K11" s="12" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="L11" s="11"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="11"/>
       <c r="R11" s="28" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="141.75" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="126" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>122</v>
+      <c r="D12" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="F12" s="6"/>
       <c r="I12" s="11" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="11" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="Q12" s="11"/>
     </row>
     <row r="13" spans="1:18" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>153</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="F13" s="6" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="J13" s="31" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="11"/>
@@ -2728,32 +1987,32 @@
     </row>
     <row r="14" spans="1:18" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="13" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="F14" s="6"/>
       <c r="J14" s="31" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="11"/>
       <c r="N14" s="31" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="11"/>
       <c r="R14" s="2"/>
     </row>
     <row r="15" spans="1:18" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>155</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2761,7 +2020,7 @@
       <c r="E15" s="13"/>
       <c r="F15" s="6"/>
       <c r="J15" s="31" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -2771,14 +2030,14 @@
     </row>
     <row r="16" spans="1:18" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>156</v>
+        <v>32</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="6"/>
@@ -2791,10 +2050,10 @@
     </row>
     <row r="17" spans="1:18" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>97</v>
+        <v>33</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>103</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -2809,7 +2068,7 @@
     </row>
     <row r="18" spans="1:18" ht="161.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="2"/>
@@ -2819,7 +2078,7 @@
       <c r="J18" s="31"/>
       <c r="K18" s="2"/>
       <c r="L18" s="30" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="M18" s="11"/>
       <c r="Q18" s="11"/>
@@ -2827,10 +2086,10 @@
     </row>
     <row r="19" spans="1:18" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -2839,26 +2098,26 @@
       <c r="J19" s="31"/>
       <c r="K19" s="2"/>
       <c r="L19" s="30" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="O19" s="11" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="P19" s="26" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="11"/>
       <c r="R19" s="2"/>
     </row>
     <row r="20" spans="1:18" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>160</v>
+        <v>36</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -2874,15 +2133,15 @@
     </row>
     <row r="21" spans="1:18" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>161</v>
+        <v>37</v>
       </c>
       <c r="B21" s="28"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="13"/>
       <c r="F21" s="6"/>
-      <c r="J21" s="16" t="s">
-        <v>113</v>
+      <c r="J21" s="31" t="s">
+        <v>111</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="30"/>
@@ -2894,7 +2153,7 @@
     </row>
     <row r="22" spans="1:18" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>162</v>
+        <v>38</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -2905,7 +2164,7 @@
       <c r="L22" s="30"/>
       <c r="M22" s="12"/>
       <c r="O22" s="11" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="P22" s="26"/>
       <c r="Q22" s="11"/>
@@ -2913,7 +2172,7 @@
     </row>
     <row r="23" spans="1:18" ht="228.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
-        <v>163</v>
+        <v>39</v>
       </c>
       <c r="B23" s="28"/>
       <c r="C23" s="2"/>
@@ -2925,10 +2184,10 @@
       <c r="L23" s="30"/>
       <c r="M23" s="12"/>
       <c r="N23" s="31" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="O23" s="11" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="P23" s="26"/>
       <c r="Q23" s="11"/>
@@ -2936,17 +2195,17 @@
     </row>
     <row r="24" spans="1:18" ht="228.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>157</v>
+        <v>33</v>
       </c>
       <c r="B24" s="28"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="35" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="F24" s="6"/>
       <c r="I24" s="11" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="J24" s="16"/>
       <c r="K24" s="2"/>
@@ -2958,7 +2217,7 @@
     </row>
     <row r="25" spans="1:18" ht="228.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="B25" s="28"/>
       <c r="C25" s="2"/>
@@ -2972,97 +2231,97 @@
       <c r="P25" s="26"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="28" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>165</v>
+        <v>41</v>
       </c>
       <c r="B26" s="27"/>
-      <c r="C26" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>106</v>
+      <c r="C26" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>120</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="I26" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="G26" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>52</v>
-      </c>
       <c r="J26" s="12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="N26" s="13" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="O26" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="P26" s="28" t="s">
-        <v>83</v>
+        <v>128</v>
+      </c>
+      <c r="P26" s="31" t="s">
+        <v>129</v>
       </c>
       <c r="Q26" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="173.25" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>166</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="3" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="O27" s="13" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="P27" s="28" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="126.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>167</v>
+        <v>43</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="H28" s="13" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="O28" s="13" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="126.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -3072,32 +2331,32 @@
     </row>
     <row r="30" spans="1:18" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="2" t="s">
-        <v>31</v>
+      <c r="D30" s="24" t="s">
+        <v>140</v>
       </c>
       <c r="E30" s="34"/>
       <c r="H30" s="13"/>
       <c r="O30" s="13"/>
     </row>
-    <row r="31" spans="1:18" ht="393.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="362.25" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="2"/>
@@ -3105,20 +2364,20 @@
       <c r="E32" s="2"/>
       <c r="F32" s="3"/>
       <c r="H32" s="11" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:18" s="25" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="C33" s="24"/>
       <c r="D33" s="24"/>
       <c r="E33" s="3" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="F33" s="24"/>
       <c r="G33" s="13"/>
@@ -3130,14 +2389,14 @@
     </row>
     <row r="34" spans="1:18" s="25" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>171</v>
+        <v>47</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
       <c r="E34" s="3"/>
       <c r="F34" s="28" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
@@ -3146,16 +2405,16 @@
       <c r="N34" s="13"/>
       <c r="O34" s="13"/>
     </row>
-    <row r="35" spans="1:18" s="25" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" s="25" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>172</v>
+        <v>48</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="24"/>
       <c r="F35" s="3" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
@@ -3165,9 +2424,9 @@
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
     </row>
-    <row r="36" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
-        <v>173</v>
+        <v>49</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -3176,12 +2435,12 @@
       <c r="F36" s="3"/>
       <c r="G36" s="13"/>
       <c r="J36" s="11" t="s">
-        <v>60</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="177" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="36" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -3189,12 +2448,12 @@
       <c r="E37" s="18"/>
       <c r="F37" s="3"/>
       <c r="G37" s="12" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A38" s="36" t="s">
-        <v>175</v>
+        <v>51</v>
       </c>
       <c r="B38" s="17"/>
       <c r="C38" s="2"/>
@@ -3203,42 +2462,42 @@
       <c r="F38" s="2"/>
       <c r="G38" s="1"/>
       <c r="H38" s="14" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="K38" s="32" t="s">
-        <v>61</v>
+        <v>150</v>
       </c>
       <c r="M38" s="11"/>
     </row>
     <row r="39" spans="1:18" ht="343.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>98</v>
+        <v>151</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="2" t="s">
-        <v>36</v>
+      <c r="E39" s="11" t="s">
+        <v>152</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="12"/>
       <c r="H39" s="14"/>
       <c r="J39" s="12" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="K39" s="10"/>
       <c r="M39" s="11" t="s">
-        <v>72</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="343.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>29</v>
+        <v>52</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>156</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -3248,79 +2507,79 @@
       <c r="H40" s="14"/>
       <c r="J40" s="12"/>
       <c r="K40" s="7" t="s">
-        <v>62</v>
+        <v>157</v>
       </c>
       <c r="L40" s="28" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="M40" s="11"/>
       <c r="O40" s="12" t="s">
-        <v>80</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="343.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>177</v>
+        <v>53</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="5" t="s">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>59</v>
+        <v>165</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="O41" s="1"/>
       <c r="P41" s="28" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="Q41" s="11" t="s">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="R41" s="28" t="s">
-        <v>95</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="B42" s="17"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="5"/>
       <c r="F42" s="7" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>48</v>
+        <v>171</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="J42" s="12"/>
       <c r="K42" s="7"/>
       <c r="L42" s="2"/>
       <c r="M42" s="12" t="s">
-        <v>71</v>
+        <v>173</v>
       </c>
       <c r="O42" s="12" t="s">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" s="11"/>
@@ -3328,15 +2587,15 @@
     </row>
     <row r="43" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="36" t="s">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="26" t="s">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="F43" s="7"/>
       <c r="J43" s="12"/>
@@ -3348,27 +2607,25 @@
       <c r="Q43" s="11"/>
       <c r="R43" s="2"/>
     </row>
-    <row r="44" spans="1:18" ht="346.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" ht="315" x14ac:dyDescent="0.25">
       <c r="A44" s="36" t="s">
-        <v>181</v>
+        <v>57</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="J44" s="12" t="s">
-        <v>55</v>
+        <v>177</v>
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="N44" s="12" t="s">
-        <v>77</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N44" s="12"/>
     </row>
     <row r="45" spans="1:18" ht="140.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="36" t="s">
-        <v>180</v>
+        <v>56</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="2"/>
@@ -3376,18 +2633,18 @@
       <c r="J45" s="12"/>
       <c r="K45" s="2"/>
       <c r="L45" s="29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" ht="157.5" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A46" s="36" t="s">
-        <v>182</v>
+        <v>58</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="F46" s="6" t="s">
-        <v>42</v>
+      <c r="F46" s="24" t="s">
+        <v>180</v>
       </c>
       <c r="J46" s="12"/>
       <c r="K46" s="2"/>
@@ -3395,13 +2652,13 @@
     </row>
     <row r="47" spans="1:18" ht="189" x14ac:dyDescent="0.25">
       <c r="A47" s="36" t="s">
-        <v>183</v>
+        <v>59</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="F47" s="6"/>
       <c r="J47" s="12"/>
@@ -3410,25 +2667,25 @@
     </row>
     <row r="48" spans="1:18" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>184</v>
+        <v>60</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="28" t="s">
-        <v>43</v>
+        <v>182</v>
       </c>
       <c r="J48" s="15"/>
       <c r="L48" s="2"/>
     </row>
     <row r="49" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="D49" s="22"/>
       <c r="E49" s="30" t="s">
-        <v>38</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -3445,18 +2702,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3644,14 +2901,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC9B8AA7-800A-4370-9A9E-D537E560765E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8DF93E9-1A98-4744-ABD7-6783FB321C99}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -3663,6 +2912,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC9B8AA7-800A-4370-9A9E-D537E560765E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
